--- a/IaaSMarketYosoku.xlsx
+++ b/IaaSMarketYosoku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\貴大\Documents\構成マップ見た目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\貴大\Documents\構成マップ見た目\卒業論文本体\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -793,11 +793,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="1083879568"/>
-        <c:axId val="1083881200"/>
+        <c:axId val="796786592"/>
+        <c:axId val="796778976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1083879568"/>
+        <c:axId val="796786592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,62 +817,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>西暦</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -910,7 +854,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1083881200"/>
+        <c:crossAx val="796778976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -918,7 +862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1083881200"/>
+        <c:axId val="796778976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -961,6 +905,19 @@
                   <a:rPr lang="ja-JP" altLang="en-US"/>
                   <a:t>市場規模</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>１０億円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1031,7 +988,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1083879568"/>
+        <c:crossAx val="796786592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1153,7 +1110,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1251,7 +1207,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1391,7 +1346,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1531,7 +1485,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1671,7 +1624,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1761,11 +1713,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="1168318864"/>
-        <c:axId val="1168320496"/>
+        <c:axId val="796788768"/>
+        <c:axId val="796787136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1168318864"/>
+        <c:axId val="796788768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1763,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1878,7 +1829,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1168320496"/>
+        <c:crossAx val="796787136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1886,7 +1837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1168320496"/>
+        <c:axId val="796787136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1882,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1998,7 +1948,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1168318864"/>
+        <c:crossAx val="796788768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2012,7 +1962,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3533,7 +3482,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/IaaSMarketYosoku.xlsx
+++ b/IaaSMarketYosoku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\貴大\Documents\構成マップ見た目\卒業論文本体\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUIToolLocalrepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -793,11 +793,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="796786592"/>
-        <c:axId val="796778976"/>
+        <c:axId val="169774896"/>
+        <c:axId val="169775456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="796786592"/>
+        <c:axId val="169774896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +854,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796778976"/>
+        <c:crossAx val="169775456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -862,7 +862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="796778976"/>
+        <c:axId val="169775456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -988,7 +988,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796786592"/>
+        <c:crossAx val="169774896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,6 +1110,969 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IaaS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CaaS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PaaS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SaaS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="164537664"/>
+        <c:axId val="164538224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164537664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164538224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164538224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>市場規模</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>１０億円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164537664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>クラウドサービスの世界市場規模の推移及び予測</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1713,11 +2676,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="796788768"/>
-        <c:axId val="796787136"/>
+        <c:axId val="170637216"/>
+        <c:axId val="170637776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="796788768"/>
+        <c:axId val="170637216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +2792,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796787136"/>
+        <c:crossAx val="170637776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1837,7 +2800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="796787136"/>
+        <c:axId val="170637776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +2911,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796788768"/>
+        <c:crossAx val="170637216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2108,6 +3071,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
@@ -2627,6 +3630,524 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3171,6 +4692,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3482,7 +5035,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
